--- a/table1.xlsx
+++ b/table1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -86,16 +86,346 @@
     <t xml:space="preserve">Portfolio formation period</t>
   </si>
   <si>
+    <t xml:space="preserve">1926 - 1929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1927 - 1933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1931 - 1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1935 - 1941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1939 - 1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1943 - 1949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1947 - 1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1951 - 1957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1955 - 1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1959 - 1965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1963 - 1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1967 - 1973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1971 - 1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1975 - 1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979 - 1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983 - 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987 - 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991 - 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995 - 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999 - 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003 - 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007 - 2013</t>
+  </si>
+  <si>
     <t xml:space="preserve">Initial estimation period</t>
   </si>
   <si>
+    <t xml:space="preserve">1930 - 1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1934 - 1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1938 - 1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1942 - 1946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1946 - 1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1950 - 1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954 - 1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1958 - 1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962 - 1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1966 - 1970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1970 - 1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1974 - 1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978 - 1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1982 - 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986 - 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990 - 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994 - 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998 - 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002 - 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006 - 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010 - 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014 - 2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Testing period</t>
   </si>
   <si>
+    <t xml:space="preserve">1935 - 1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1939 - 1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1943 - 1946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1947 - 1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1951 - 1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1955 - 1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1959 - 1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1963 - 1966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1967 - 1970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1971 - 1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1975 - 1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979 - 1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983 - 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987 - 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1991 - 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995 - 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999 - 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003 - 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007 - 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011 - 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015 - 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 - 2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">No. of securities available</t>
   </si>
   <si>
+    <t xml:space="preserve">707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2767</t>
+  </si>
+  <si>
     <t xml:space="preserve">No. of securities meeting data requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1872</t>
   </si>
 </sst>
 </file>
@@ -502,355 +832,355 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="n">
-        <v>1926</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1927</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1931</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1935</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1939</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1943</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1947</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1951</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1955</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1959</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1963</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1967</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1979</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1983</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1987</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1991</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1995</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1999</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2003</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2007</v>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1930</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1934</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1938</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1942</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1946</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1950</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1954</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1958</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1962</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1966</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1970</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1974</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1978</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1982</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1986</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1990</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1994</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1998</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2002</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2006</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2010</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2014</v>
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1935</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1939</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1943</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1947</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1951</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1955</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1959</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1963</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1971</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1975</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1979</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1983</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1987</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1991</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1995</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2003</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2007</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2011</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2015</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2019</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="n">
-        <v>707</v>
-      </c>
-      <c r="C5" t="n">
-        <v>777</v>
-      </c>
-      <c r="D5" t="n">
-        <v>803</v>
-      </c>
-      <c r="E5" t="n">
-        <v>908</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1012</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1052</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1066</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1351</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1480</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1616</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2184</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2122</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2051</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2198</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2324</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3074</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3212</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2829</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2938</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2791</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2944</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2767</v>
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="n">
-        <v>277</v>
-      </c>
-      <c r="C6" t="n">
-        <v>504</v>
-      </c>
-      <c r="D6" t="n">
-        <v>589</v>
-      </c>
-      <c r="E6" t="n">
-        <v>685</v>
-      </c>
-      <c r="F6" t="n">
-        <v>748</v>
-      </c>
-      <c r="G6" t="n">
-        <v>802</v>
-      </c>
-      <c r="H6" t="n">
-        <v>842</v>
-      </c>
-      <c r="I6" t="n">
-        <v>841</v>
-      </c>
-      <c r="J6" t="n">
-        <v>827</v>
-      </c>
-      <c r="K6" t="n">
-        <v>813</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1195</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1659</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1508</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1381</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1523</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1621</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1706</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1818</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1768</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1908</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1872</v>
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" t="s">
+        <v>135</v>
+      </c>
+      <c r="V6" t="s">
+        <v>136</v>
+      </c>
+      <c r="W6" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
